--- a/DHBWorld_Storypoints_Diagram.xlsx
+++ b/DHBWorld_Storypoints_Diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blitz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11F466F7-5A1E-4F75-88B3-BB74BF0066E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A85FBF-9ACF-4B65-8986-FE8107597220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,8 +211,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.46668985254526785"/>
-          <c:y val="1.781958692513767E-2"/>
+          <c:x val="0.46668984449736595"/>
+          <c:y val="1.4382865851744489E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -251,10 +251,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.2013058586664348E-2"/>
-          <c:y val="1.8606875919129382E-2"/>
-          <c:w val="0.95832280857008967"/>
-          <c:h val="0.90345856926535184"/>
+          <c:x val="2.8449435706461797E-2"/>
+          <c:y val="5.4692260981478613E-2"/>
+          <c:w val="0.95188642901570941"/>
+          <c:h val="0.8415979687200642"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -302,7 +302,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80A7ACC3-2F14-4D15-9D15-8806AA413EF5}" type="CELLRANGE">
+                    <a:fld id="{BC792065-4379-4633-B7DF-00B6690C83E2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -340,7 +340,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{68C810EB-5352-465C-9D13-AEF0B2716713}" type="CELLRANGE">
+                    <a:fld id="{3AFAA5DD-CC37-4163-818B-46452E19D8CB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -378,7 +378,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{092D04CA-5C43-40D0-8313-72EAB73D7DF8}" type="CELLRANGE">
+                    <a:fld id="{C6090570-818E-4DDF-8CA5-6067A7864C2C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -416,7 +416,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21F77D68-4C53-4D37-8716-500488F8E255}" type="CELLRANGE">
+                    <a:fld id="{640304B3-600D-488E-AFEE-9BDDA7DD5466}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -454,7 +454,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF86A83D-2B5F-4E3A-AC3C-6B873B65E415}" type="CELLRANGE">
+                    <a:fld id="{F9BA30DF-58E5-4DEC-BCBB-D322709D8F67}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -492,7 +492,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9EF24A06-5B0E-4A19-97EA-3631D2C20951}" type="CELLRANGE">
+                    <a:fld id="{75B32C3C-375F-4122-84B5-A8CD056EA787}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -530,7 +530,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4CE0F26-B3BE-4253-8F38-546CA8297AE2}" type="CELLRANGE">
+                    <a:fld id="{17B62B35-554C-4B27-B850-D99FA4FFE310}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -568,7 +568,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4805D6AB-D696-4A9D-ACB9-821058907349}" type="CELLRANGE">
+                    <a:fld id="{255F8742-D6A9-413F-B22B-79EB51E502D2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -606,7 +606,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{249F25C4-B99A-488D-B399-5C0C29F74CE4}" type="CELLRANGE">
+                    <a:fld id="{C174F19C-FF40-4F19-8C30-EFB243B3ED50}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -644,7 +644,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B4FA336-F857-48BB-943F-7C883BD14884}" type="CELLRANGE">
+                    <a:fld id="{E18DD38F-ED44-499E-A770-C80414FDAEAA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -898,7 +898,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD4BA428-53C3-428E-96F5-D393DF74DD36}" type="CELLRANGE">
+                    <a:fld id="{8BE8D351-605F-4B7B-BF85-EBAE22A93019}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -936,7 +936,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FBC36EB4-355E-4A91-871C-1C5E8AFD4F31}" type="CELLRANGE">
+                    <a:fld id="{80A1C251-B92B-450E-B0E3-7B2ABF62A2B3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -974,7 +974,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99F0F2E4-6947-48DB-B078-28F0E8B5BE28}" type="CELLRANGE">
+                    <a:fld id="{0880D542-4DB3-4BA5-93CE-2BD4EFC2B7D6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1012,7 +1012,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{579ADF6C-2FCA-4D82-9D25-570775298A4F}" type="CELLRANGE">
+                    <a:fld id="{03526A7C-7C6C-4FE7-B677-F646E17B9708}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1050,7 +1050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D287F9EE-5D10-45D2-B5A5-8F9F8F40CDD2}" type="CELLRANGE">
+                    <a:fld id="{349B300B-7484-49D5-81DB-BA04F8070D30}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1088,7 +1088,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA32679C-D3C7-44DE-97CE-3E13798BB336}" type="CELLRANGE">
+                    <a:fld id="{80F335A6-B7BA-46E8-A053-E3A78D234F99}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1126,7 +1126,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2FAE5315-F1A4-4EAC-AEB4-62E931DCF5B6}" type="CELLRANGE">
+                    <a:fld id="{8547F051-6A24-423C-B153-F2B997366441}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1164,7 +1164,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AAC54EC1-804F-442A-8A0A-0D68A426B9BD}" type="CELLRANGE">
+                    <a:fld id="{B8B7DF8A-4134-4F9F-B970-1F5380D357DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1437,6 +1437,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Hours spend</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48063542201450338"/>
+              <c:y val="0.92159084635942368"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1499,6 +1562,36 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1555,6 +1648,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34433146016206573"/>
+          <c:y val="0.95961916477873599"/>
+          <c:w val="0.31078935251251572"/>
+          <c:h val="2.8997370788146577E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2189,15 +2292,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>159883</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>172042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>477049</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>60031</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2524,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DHBWorld_Storypoints_Diagram.xlsx
+++ b/DHBWorld_Storypoints_Diagram.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blitz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Christian\Christian\1. Wichtig\Dokumente\DHBW\Softwareengineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A85FBF-9ACF-4B65-8986-FE8107597220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A961D8-D0B3-4A07-A2DD-BF2DFB74E994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>reporting events</t>
   </si>
@@ -49,9 +49,6 @@
     <t>show weekly meal plan</t>
   </si>
   <si>
-    <t>save personal information</t>
-  </si>
-  <si>
     <t>view information about app</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
   </si>
   <si>
     <t>view routes to room</t>
-  </si>
-  <si>
-    <t>view information about professors</t>
   </si>
   <si>
     <t>loggining in</t>
@@ -92,6 +86,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>view organizer</t>
   </si>
 </sst>
 </file>
@@ -136,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -145,6 +142,9 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -302,7 +302,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC792065-4379-4633-B7DF-00B6690C83E2}" type="CELLRANGE">
+                    <a:fld id="{D5DB6FEA-0398-4787-95C1-019E894E86E0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -340,7 +340,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3AFAA5DD-CC37-4163-818B-46452E19D8CB}" type="CELLRANGE">
+                    <a:fld id="{D6C79D8D-63A1-4D16-9F12-9B1F43FA451F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -378,7 +378,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6090570-818E-4DDF-8CA5-6067A7864C2C}" type="CELLRANGE">
+                    <a:fld id="{C98D560A-4C3B-410E-8F69-A95DE7A21FEB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -416,7 +416,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{640304B3-600D-488E-AFEE-9BDDA7DD5466}" type="CELLRANGE">
+                    <a:fld id="{AE1FFAB4-A5C2-45C5-ACDA-5D6F462C04F6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -454,7 +454,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9BA30DF-58E5-4DEC-BCBB-D322709D8F67}" type="CELLRANGE">
+                    <a:fld id="{F286ED2E-3380-4620-AFBA-ABA6BFE57534}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -492,7 +492,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{75B32C3C-375F-4122-84B5-A8CD056EA787}" type="CELLRANGE">
+                    <a:fld id="{E33F49E4-6920-4269-9017-1D2B789E31F9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -530,7 +530,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{17B62B35-554C-4B27-B850-D99FA4FFE310}" type="CELLRANGE">
+                    <a:fld id="{BFDEFB71-9DF1-4FC3-A5A1-CBAA7ADC2517}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -568,7 +568,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{255F8742-D6A9-413F-B22B-79EB51E502D2}" type="CELLRANGE">
+                    <a:fld id="{F7086FB8-14C0-4189-9042-75AD8CA3AB69}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -606,7 +606,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C174F19C-FF40-4F19-8C30-EFB243B3ED50}" type="CELLRANGE">
+                    <a:fld id="{692BC05A-4E8D-4BE8-A95C-8B0F99EA99A8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -644,7 +644,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E18DD38F-ED44-499E-A770-C80414FDAEAA}" type="CELLRANGE">
+                    <a:fld id="{983B9999-C74E-4453-9885-A6E1F09504A1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -737,7 +737,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'DHBWorld  Time pro UseCase'!$B$11:$B$20</c:f>
+              <c:f>'DHBWorld  Time pro UseCase'!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -776,7 +776,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'DHBWorld  Time pro UseCase'!$C$11:$C$20</c:f>
+              <c:f>'DHBWorld  Time pro UseCase'!$C$10:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -817,7 +817,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'DHBWorld  Time pro UseCase'!$A$11:$A$20</c15:f>
+                <c15:f>'DHBWorld  Time pro UseCase'!$A$10:$A$19</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
@@ -833,7 +833,7 @@
                     <c:v>view routes to room</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>view information about professors</c:v>
+                    <c:v>view organizer</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>loggining in</c:v>
@@ -898,7 +898,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8BE8D351-605F-4B7B-BF85-EBAE22A93019}" type="CELLRANGE">
+                    <a:fld id="{FB749D21-8D31-4EC8-86E7-C3D1279A39A6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -936,7 +936,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80A1C251-B92B-450E-B0E3-7B2ABF62A2B3}" type="CELLRANGE">
+                    <a:fld id="{EACE5172-4D3C-4FEF-BD31-2386254401C5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -974,7 +974,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0880D542-4DB3-4BA5-93CE-2BD4EFC2B7D6}" type="CELLRANGE">
+                    <a:fld id="{F2603518-BDA3-48DF-B03B-2D49A36A00C2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1012,7 +1012,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{03526A7C-7C6C-4FE7-B677-F646E17B9708}" type="CELLRANGE">
+                    <a:fld id="{31F96983-A562-48A3-9EAD-AFB0A7630975}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1050,7 +1050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{349B300B-7484-49D5-81DB-BA04F8070D30}" type="CELLRANGE">
+                    <a:fld id="{1CF7BE1C-D4AB-4B85-BF45-EF08C8A35944}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1088,7 +1088,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80F335A6-B7BA-46E8-A053-E3A78D234F99}" type="CELLRANGE">
+                    <a:fld id="{C57E8E16-6935-44F6-BF81-73E5FAB346C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1126,7 +1126,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8547F051-6A24-423C-B153-F2B997366441}" type="CELLRANGE">
+                    <a:fld id="{FAAC1822-48B0-489A-ABDF-01261CAFA940}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1302,10 +1302,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'DHBWorld  Time pro UseCase'!$B$3:$B$10</c:f>
+              <c:f>'DHBWorld  Time pro UseCase'!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>28.3</c:v>
                 </c:pt>
@@ -1319,15 +1319,12 @@
                   <c:v>5.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5</c:v>
+                  <c:v>3.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.45</c:v>
+                  <c:v>5.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
@@ -1335,10 +1332,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'DHBWorld  Time pro UseCase'!$C$3:$C$10</c:f>
+              <c:f>'DHBWorld  Time pro UseCase'!$C$3:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -1355,12 +1352,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1370,9 +1364,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'DHBWorld  Time pro UseCase'!$A$3:$A$10</c15:f>
+                <c15:f>'DHBWorld  Time pro UseCase'!$A$3:$A$9</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
                     <c:v>reporting events</c:v>
                   </c:pt>
@@ -1386,15 +1380,12 @@
                     <c:v>receiving notifications</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>save personal information</c:v>
+                    <c:v>view information about app</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>view information about app</c:v>
+                    <c:v>view personal information</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>view personal information</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
                     <c:v>configure notifications</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -2299,7 +2290,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>477049</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2625,10 +2616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,10 +2631,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2729,7 +2720,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>
@@ -2746,10 +2737,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>3.45</v>
+        <v>5.3</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2763,7 +2754,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -2775,33 +2766,34 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9">
+        <f>C10/0.5113</f>
+        <v>15.646391550948563</v>
+      </c>
+      <c r="C10" s="10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2">
-        <f>C11/0.5113</f>
-        <v>15.646391550948563</v>
-      </c>
-      <c r="C11" s="7">
-        <v>8</v>
+      <c r="A11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="9">
+        <f t="shared" ref="B11:B19" si="0">C11/0.5113</f>
+        <v>25.425386270291416</v>
+      </c>
+      <c r="C11" s="10">
+        <v>13</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2811,15 +2803,15 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" ref="B12:B20" si="0">C12/0.5113</f>
-        <v>25.425386270291416</v>
-      </c>
-      <c r="C12" s="7">
-        <v>13</v>
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9">
+        <f t="shared" si="0"/>
+        <v>15.646391550948563</v>
+      </c>
+      <c r="C12" s="10">
+        <v>8</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2829,15 +2821,15 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="9">
         <f t="shared" si="0"/>
-        <v>15.646391550948563</v>
-      </c>
-      <c r="C13" s="6">
-        <v>8</v>
+        <v>9.7789947193428528</v>
+      </c>
+      <c r="C13" s="10">
+        <v>5</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2847,14 +2839,14 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="A14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="9">
         <f t="shared" si="0"/>
         <v>9.7789947193428528</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="10">
         <v>5</v>
       </c>
       <c r="D14" s="1"/>
@@ -2865,14 +2857,14 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="A15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9">
         <f t="shared" si="0"/>
         <v>9.7789947193428528</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="10">
         <v>5</v>
       </c>
       <c r="D15" s="1"/>
@@ -2883,15 +2875,15 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="A16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="9">
         <f t="shared" si="0"/>
-        <v>9.7789947193428528</v>
-      </c>
-      <c r="C16" s="7">
-        <v>5</v>
+        <v>15.646391550948563</v>
+      </c>
+      <c r="C16" s="10">
+        <v>8</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2901,14 +2893,14 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="A17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="9">
         <f t="shared" si="0"/>
         <v>15.646391550948563</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="10">
         <v>8</v>
       </c>
       <c r="D17" s="1"/>
@@ -2919,15 +2911,15 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="A18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="9">
         <f t="shared" si="0"/>
-        <v>15.646391550948563</v>
-      </c>
-      <c r="C18" s="7">
-        <v>8</v>
+        <v>9.7789947193428528</v>
+      </c>
+      <c r="C18" s="10">
+        <v>5</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2937,15 +2929,15 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="A19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="9">
         <f t="shared" si="0"/>
-        <v>9.7789947193428528</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5</v>
+        <v>5.8673968316057108</v>
+      </c>
+      <c r="C19" s="10">
+        <v>3</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2955,31 +2947,13 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>5.8673968316057108</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="A20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
         <v>0</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C20" s="10">
         <v>0</v>
       </c>
     </row>
